--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L34"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1719,6 +1719,46 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2025-03-12 06:08:58</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="n">
+        <v>150</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Card</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>kaju (2)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>[{"name": "kaju", "quantity": 2, "price": 75.0, "total": 150.0}]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1759,6 +1759,46 @@
         </is>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2025-03-13 01:07:34</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="n">
+        <v>75</v>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Card</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Badam (1)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>[{"name": "Badam", "quantity": 1, "price": 75.0, "total": 75.0}]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1799,6 +1799,46 @@
         </is>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2025-03-16 00:04:53</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="n">
+        <v>6610</v>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Card</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>Badam (30), kaju (44), Creatine  (4), banana (4)</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>[{"name": "Badam", "quantity": 30, "price": 85.0, "total": 2550.0}, {"name": "kaju", "quantity": 44, "price": 75.0, "total": 3300.0}, {"name": "Creatine ", "quantity": 4, "price": 200.0, "total": 800.0}, {"name": "banana", "quantity": 4, "price": 65.0, "total": 260.0}]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1839,6 +1839,126 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:16:54</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="n">
+        <v>500</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Custom Product</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>maryam</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>maryam</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Shake</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>[{"id": "2", "name": "Badam", "price": 60, "quantity": 1, "subtotal": 60}, {"id": "4", "name": "apple", "price": 120, "quantity": 1, "subtotal": 120}, {"id": "7", "name": "protine powder", "price": 100, "quantity": 3, "subtotal": 300}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2025-03-17 22:24:12</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>420</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Custom Product</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>maryam</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>maryam</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Shake</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>[{"id": "3", "name": "kaju", "price": 50, "quantity": 1, "subtotal": 50}, {"id": "7", "name": "Creatine ", "price": 150, "quantity": 1, "subtotal": 150}, {"id": "7", "name": "ON Whey", "price": 100, "quantity": 1, "subtotal": 100}, {"id": "4", "name": "apple", "price": 120, "quantity": 1, "subtotal": 120}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2025-03-17 23:28:20</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>400</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>maryam</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Maryam</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>food (1)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>[{"name": "food", "quantity": 1, "price": 400.0, "total": 400.0}]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1959,6 +1959,126 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2025-03-18 00:15:28</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>12400</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>maryam</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Maryam</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>food (31)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>[{"name": "food", "quantity": 31, "price": 400.0, "total": 12400.0}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2025-03-18 00:16:32</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="n">
+        <v>500</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>maryam</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Maryam</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>test (1)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>[{"name": "test", "quantity": 1, "price": 500.0, "total": 500.0}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2025-03-18 00:18:19</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="n">
+        <v>500</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>maryam</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Maryam</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>test (1)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>[{"name": "test", "quantity": 1, "price": 500.0, "total": 500.0}]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,106 @@
           <t>payment_method</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>staff_username</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>staff_name</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>items</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>items_details</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>2025-03-18 19:39:56</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="n">
+        <v>400</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>ON Whey (2), kaju (2)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>[{"name": "ON Whey", "quantity": 2, "price": 70.0, "total": 140.0}, {"name": "kaju", "quantity": 2, "price": 130.0, "total": 260.0}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2025-03-18 20:06:55</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>6500</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cash</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>kaju (50)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>[{"name": "kaju", "quantity": 50, "price": 130.0, "total": 6500.0}]</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,144 +436,439 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>date</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>member_id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>member_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>inventory_id</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>item_name</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>quantity</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>total_amount</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>payment_method</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>staff_username</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>staff_name</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>items</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>items_details</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-03-18 19:39:56</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2025-03-21 20:01:39</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
-      <c r="G2" t="n">
-        <v>400</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>70</v>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>cash</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>BILAL</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>ON Whey (2), kaju (2)</t>
+          <t>Bilal</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[{"name": "ON Whey", "quantity": 2, "price": 70.0, "total": 140.0}, {"name": "kaju", "quantity": 2, "price": 130.0, "total": 260.0}]</t>
-        </is>
-      </c>
+          <t>[{"name": "ON Whey", "quantity": 1, "price": 70.0, "total": 70.0}]</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-03-18 20:06:55</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2025-03-21 20:04:11</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>6500</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Cash</t>
-        </is>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="n">
+        <v>200</v>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>cash</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Admin</t>
+          <t>BILAL</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>kaju (50)</t>
+          <t>Bilal</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[{"name": "kaju", "quantity": 50, "price": 130.0, "total": 6500.0}]</t>
-        </is>
-      </c>
+          <t>[{"name": "kaju", "quantity": 1, "price": 130.0, "total": 130.0}, {"name": "ON Whey", "quantity": 1, "price": 70.0, "total": 70.0}]</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2025-03-21 20:05:51</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
+        <v>560</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bilal</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>[{"name": "kaju", "quantity": 1, "price": 130.0, "total": 130.0}, {"name": "Custom Product", "quantity": 1, "price": 300.0, "total": 300.0}, {"name": "kaju", "quantity": 1, "price": 130.0, "total": 130.0}]</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2025-03-21 20:17:15</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="n">
+        <v>175</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bilal</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>[{"name": "ON Whey", "quantity": 1, "price": 70.0, "total": 70.0}, {"name": "Milk", "quantity": 1, "price": 105.0, "total": 105.0}]</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2025-03-21 20:17:36</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>70</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bilal</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>[{"name": "ON Whey", "quantity": 1, "price": 70.0, "total": 70.0}]</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-03-21 20:21:09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="n">
+        <v>130</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Bilal</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>[{"name": "kaju", "quantity": 1, "price": 130.0, "total": 130.0}]</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2025-03-21 20:22:53</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="n">
+        <v>250</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>Bilal</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>[{"name": "Protein Shake", "quantity": 1, "price": 250.0, "total": 250.0}]</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2025-03-21 20:24:14</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="n">
+        <v>250</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Bilal</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>[{"name": "Protein Shake", "quantity": 1, "price": 250.0, "total": 250.0}]</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2025-03-21 20:25:38</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="n">
+        <v>70</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Bilal</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>[{"name": "ON Whey", "quantity": 1, "price": 70.0, "total": 70.0}]</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2025-03-21 20:25:49</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="n">
+        <v>250</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Bilal</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>[{"name": "Protein Shake", "quantity": 1, "price": 250.0, "total": 250.0}]</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -870,6 +870,329 @@
       </c>
       <c r="M11" t="inlineStr"/>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:09:01</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>175</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>Bilal</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>[{"name": "ON Whey", "quantity": 1, "price": 70.0, "total": 70.0}, {"name": "Milk", "quantity": 1, "price": 105.0, "total": 105.0}]</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:12:56</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="n">
+        <v>70</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>Bilal</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>[{"name": "ON Whey", "quantity": 1, "price": 70.0, "total": 70.0}]</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2025-03-21 21:16:28</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>1020</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>Bilal</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>[{"name": "ON Whey", "quantity": 1, "price": 70.0, "total": 70.0}, {"name": "kaju", "quantity": 5, "price": 130.0, "total": 650.0}, {"name": "Custom Product", "quantity": 1, "price": 300.0, "total": 300.0}]</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2025-03-21 23:04:53</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
+        <v>320</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>[{"name": "ON Whey", "quantity": 1, "price": 70, "total": 70}, {"name": "Protein Shake", "quantity": 1, "price": 250, "total": 250}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2025-03-21 23:11:34</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>390</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>upi</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>[{"name": "ON Whey", "quantity": 2, "price": 70, "total": 140}, {"name": "Protein Shake", "quantity": 1, "price": 250, "total": 250}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-03-21 23:12:30</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="n">
+        <v>390</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>upi</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>[{"name": "ON Whey", "quantity": 2, "price": 70, "total": 140}, {"name": "Protein Shake", "quantity": 1, "price": 250, "total": 250}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-03-21 23:22:12</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="n">
+        <v>980</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>[{"name": "ON Whey", "quantity": 1, "price": 70, "total": 70}, {"name": "kaju", "quantity": 7, "price": 130, "total": 910}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-03-21 23:26:03</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="n">
+        <v>980</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>upi</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>[{"name": "ON Whey", "quantity": 1, "price": 70, "total": 70}, {"name": "kaju", "quantity": 7, "price": 130, "total": 910}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-03-21 23:26:32</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>[{"name": "Custom Product", "quantity": 10, "price": 300, "total": 3000}]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,486 +501,198 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-03-21 20:01:39</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="n">
-        <v>70</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>cash</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>BILAL</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Bilal</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>[{"name": "ON Whey", "quantity": 1, "price": 70.0, "total": 70.0}]</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-03-21 20:04:11</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="n">
-        <v>200</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>cash</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>BILAL</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Bilal</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>[{"name": "kaju", "quantity": 1, "price": 130.0, "total": 130.0}, {"name": "ON Whey", "quantity": 1, "price": 70.0, "total": 70.0}]</t>
-        </is>
-      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-03-21 20:05:51</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-      <c r="H4" t="n">
-        <v>560</v>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>cash</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>BILAL</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Bilal</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>[{"name": "kaju", "quantity": 1, "price": 130.0, "total": 130.0}, {"name": "Custom Product", "quantity": 1, "price": 300.0, "total": 300.0}, {"name": "kaju", "quantity": 1, "price": 130.0, "total": 130.0}]</t>
-        </is>
-      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-03-21 20:17:15</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="n">
-        <v>175</v>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>cash</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>BILAL</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Bilal</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>[{"name": "ON Whey", "quantity": 1, "price": 70.0, "total": 70.0}, {"name": "Milk", "quantity": 1, "price": 105.0, "total": 105.0}]</t>
-        </is>
-      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-03-21 20:17:36</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="n">
-        <v>70</v>
-      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>BILAL</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>Bilal</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>[{"name": "ON Whey", "quantity": 1, "price": 70.0, "total": 70.0}]</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-03-21 20:21:09</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
-      <c r="H7" t="n">
-        <v>130</v>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>BILAL</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Bilal</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>[{"name": "kaju", "quantity": 1, "price": 130.0, "total": 130.0}]</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-03-21 20:22:53</t>
-        </is>
-      </c>
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
-      <c r="H8" t="n">
-        <v>250</v>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>cash</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>BILAL</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>Bilal</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>[{"name": "Protein Shake", "quantity": 1, "price": 250.0, "total": 250.0}]</t>
-        </is>
-      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-03-21 20:24:14</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
-      <c r="H9" t="n">
-        <v>250</v>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>BILAL</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Bilal</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>[{"name": "Protein Shake", "quantity": 1, "price": 250.0, "total": 250.0}]</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-03-21 20:25:38</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>70</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>BILAL</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Bilal</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>[{"name": "ON Whey", "quantity": 1, "price": 70.0, "total": 70.0}]</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-03-21 20:25:49</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>250</v>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>BILAL</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Bilal</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>[{"name": "Protein Shake", "quantity": 1, "price": 250.0, "total": 250.0}]</t>
-        </is>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-03-21 21:09:01</t>
-        </is>
-      </c>
+      <c r="A12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>175</v>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>card</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>BILAL</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Bilal</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>[{"name": "ON Whey", "quantity": 1, "price": 70.0, "total": 70.0}, {"name": "Milk", "quantity": 1, "price": 105.0, "total": 105.0}]</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-03-21 21:12:56</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="n">
-        <v>70</v>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>cash</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>BILAL</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Bilal</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>[{"name": "ON Whey", "quantity": 1, "price": 70.0, "total": 70.0}]</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-03-21 21:16:28</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>1020</v>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>BILAL</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Bilal</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>[{"name": "ON Whey", "quantity": 1, "price": 70.0, "total": 70.0}, {"name": "kaju", "quantity": 5, "price": 130.0, "total": 650.0}, {"name": "Custom Product", "quantity": 1, "price": 300.0, "total": 300.0}]</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -1193,6 +905,181 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-03-23 10:54:53</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="n">
+        <v>250</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>card</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>Qasim</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>[{"name": "Protein Shake", "quantity": 1, "price": 250, "total": 250}]</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-03-23 11:09:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Walk-in Customer</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>320</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>[["R_1", {"name": "ON Whey", "price": 70, "quantity": 1, "subtotal": 70}], ["C_1002", {"name": "Protein Shake", "price": 250, "quantity": 1, "subtotal": 250}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-03-23 11:12:12</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Walk-in Customer</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>250</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>[["C_1002",{"name":"Protein Shake","price":250,"quantity":1,"subtotal":250}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-03-23 11:17:17</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Walk-in Customer</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="n">
+        <v>70</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>[["R_1",{"name":"ON Whey","price":70,"quantity":1,"subtotal":70}]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-03-23 11:21:05</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>355</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>admin</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>[{"name": "Milk", "quantity": 1, "price": 105, "total": 105}, {"name": "Protein Shake", "quantity": 1, "price": 250, "total": 250}]</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/sales.xlsx
+++ b/data/sales.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -22,46 +22,25 @@
     <t>date</t>
   </si>
   <si>
-    <t>staff_name</t>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>member_name</t>
+  </si>
+  <si>
+    <t>inventory_id</t>
+  </si>
+  <si>
+    <t>item_name</t>
+  </si>
+  <si>
+    <t>quantity</t>
   </si>
   <si>
     <t>total_amount</t>
   </si>
   <si>
     <t>payment_method</t>
-  </si>
-  <si>
-    <t>items_details</t>
-  </si>
-  <si>
-    <t>09-04-2025 23:21:22</t>
-  </si>
-  <si>
-    <t>09-04-2025 23:36:28</t>
-  </si>
-  <si>
-    <t>09-04-2025 23:37:44</t>
-  </si>
-  <si>
-    <t>09-04-2025 23:38:04</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>cash</t>
-  </si>
-  <si>
-    <t>[{"name": "Custom Product", "quantity": 1, "price": 300, "total": 300}, {"name": "kaju", "quantity": 2, "price": 80, "total": 160}]</t>
-  </si>
-  <si>
-    <t>[{"name": "ON Whey", "quantity": 5, "price": 60, "total": 300}]</t>
-  </si>
-  <si>
-    <t>[{"name": "ON Whey", "quantity": 3, "price": 60, "total": 180}, {"name": "kaju", "quantity": 7, "price": 80, "total": 560}]</t>
-  </si>
-  <si>
-    <t>[{"name": "Normal Product", "quantity": 1, "price": 200, "total": 200}]</t>
   </si>
 </sst>
 </file>
@@ -419,13 +398,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,85 +423,14 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>460</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>300</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>740</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
